--- a/INV2026.xlsx
+++ b/INV2026.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b674a9ef60fb0d94/Archive/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zahid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DC317CF-B2D3-406E-9DEF-74FB0FFC6FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF7488F-1478-4708-8475-961B0D57DF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDCD678F-667F-41E0-8CDC-67F0CAE96E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="DASH" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__bal05">#REF!</definedName>
     <definedName name="__bal06">#REF!</definedName>
@@ -1073,9 +1070,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1267,6 +1261,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1463,225 +1460,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="DASH"/>
-      <sheetName val="Actions"/>
-      <sheetName val="Planning&gt;&gt;"/>
-      <sheetName val="Plan"/>
-      <sheetName val="LTP"/>
-      <sheetName val="ETF"/>
-      <sheetName val="Stop losses"/>
-      <sheetName val="Research"/>
-      <sheetName val="Strategies"/>
-      <sheetName val="Finances &gt;&gt;"/>
-      <sheetName val="Performance"/>
-      <sheetName val="Finances"/>
-      <sheetName val="Execute&gt;&gt;"/>
-      <sheetName val="T1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>CMCX</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>SAG</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>AEP</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>YU.</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>KIE</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>KLR</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>FRP</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>VIC</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>MPE</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>HTG</v>
-          </cell>
-          <cell r="M4" t="str">
-            <v>RFX</v>
-          </cell>
-          <cell r="N4" t="str">
-            <v>SSIT</v>
-          </cell>
-          <cell r="O4" t="str">
-            <v>INVP</v>
-          </cell>
-          <cell r="P4" t="str">
-            <v>HSBA</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>316</v>
-          </cell>
-          <cell r="D7">
-            <v>560</v>
-          </cell>
-          <cell r="E7">
-            <v>1450</v>
-          </cell>
-          <cell r="F7">
-            <v>1670</v>
-          </cell>
-          <cell r="G7">
-            <v>222</v>
-          </cell>
-          <cell r="H7">
-            <v>1714</v>
-          </cell>
-          <cell r="I7">
-            <v>133</v>
-          </cell>
-          <cell r="J7">
-            <v>79.36</v>
-          </cell>
-          <cell r="K7">
-            <v>1240</v>
-          </cell>
-          <cell r="L7">
-            <v>406.6</v>
-          </cell>
-          <cell r="M7">
-            <v>435</v>
-          </cell>
-          <cell r="N7">
-            <v>140.9</v>
-          </cell>
-          <cell r="O7">
-            <v>619</v>
-          </cell>
-          <cell r="P7">
-            <v>1310</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>945</v>
-          </cell>
-          <cell r="D8">
-            <v>543</v>
-          </cell>
-          <cell r="E8">
-            <v>169.4</v>
-          </cell>
-          <cell r="F8">
-            <v>183</v>
-          </cell>
-          <cell r="G8">
-            <v>1120</v>
-          </cell>
-          <cell r="H8">
-            <v>175</v>
-          </cell>
-          <cell r="I8">
-            <v>2267</v>
-          </cell>
-          <cell r="J8">
-            <v>3240</v>
-          </cell>
-          <cell r="K8">
-            <v>279</v>
-          </cell>
-          <cell r="L8">
-            <v>733.69899999999996</v>
-          </cell>
-          <cell r="M8">
-            <v>580</v>
-          </cell>
-          <cell r="N8">
-            <v>114.307</v>
-          </cell>
-          <cell r="O8">
-            <v>24</v>
-          </cell>
-          <cell r="P8">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>268.59999999999997</v>
-          </cell>
-          <cell r="D31">
-            <v>476</v>
-          </cell>
-          <cell r="E31">
-            <v>1232.5</v>
-          </cell>
-          <cell r="F31">
-            <v>1750</v>
-          </cell>
-          <cell r="G31">
-            <v>188.7</v>
-          </cell>
-          <cell r="H31">
-            <v>1748</v>
-          </cell>
-          <cell r="I31">
-            <v>113.05</v>
-          </cell>
-          <cell r="J31">
-            <v>81</v>
-          </cell>
-          <cell r="K31">
-            <v>1265</v>
-          </cell>
-          <cell r="L31">
-            <v>430</v>
-          </cell>
-          <cell r="M31">
-            <v>369.75</v>
-          </cell>
-          <cell r="N31">
-            <v>119.765</v>
-          </cell>
-          <cell r="O31">
-            <v>526.15</v>
-          </cell>
-          <cell r="P31">
-            <v>1113.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3857,7 +3635,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG7" sqref="AG7"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3876,7 +3654,7 @@
     <col min="23" max="23" width="16.1796875" style="1" customWidth="1"/>
     <col min="24" max="24" width="14.54296875" style="1" customWidth="1"/>
     <col min="25" max="25" width="1.81640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.26953125" style="70" customWidth="1"/>
+    <col min="26" max="26" width="13.26953125" style="69" customWidth="1"/>
     <col min="27" max="27" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="13.26953125" style="1" customWidth="1"/>
     <col min="30" max="30" width="38.6328125" style="3" customWidth="1"/>
@@ -3887,500 +3665,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="21" x14ac:dyDescent="0.35">
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="70"/>
+      <c r="J1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="K1" s="70"/>
+      <c r="M1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="P1" s="5" t="s">
+      <c r="N1" s="70"/>
+      <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="5">
         <f>SUMIF(Q6:Q21,"&gt;0",Q6:Q21)+SUMIF(Q27:Q32,"&gt;0",Q27:Q32)</f>
         <v>2276.3059659999999</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="6">
         <f>Q1/G2</f>
         <v>3.7851950839312073E-2</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="5">
         <f ca="1">SUMIF(V6:V21,"&gt;0",V6:V21)+SUMIF(V27:V32,"&gt;0",V27:V32)</f>
         <v>1985.2847867000012</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="8">
         <f ca="1">Q1-V1</f>
         <v>291.02117929999872</v>
       </c>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="2:34" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="6">
+    <row r="2" spans="2:34" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="5">
         <f>SUM(G22,G34)</f>
         <v>60137.084496999996</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f ca="1">SUM(H22,H34)</f>
         <v>66097.882719999994</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="6">
+      <c r="I2" s="9"/>
+      <c r="J2" s="5">
         <f ca="1">SUM(J22,J34)</f>
         <v>5799.8282229999995</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f ca="1">J2/G2</f>
         <v>9.6443455340594869E-2</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11">
+      <c r="L2" s="9"/>
+      <c r="M2" s="10">
         <f ca="1">N2/G2</f>
         <v>1.251174412805766E-2</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <f ca="1">SUM(N22,N34)</f>
         <v>752.419813833847</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="12" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <f>SUM(Q22,Q34)</f>
         <v>-3421.2560184500007</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <f>Q2/G2</f>
         <v>-5.6890952514012778E-2</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="12" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="5">
         <f ca="1">SUM(V22,V34)</f>
         <v>-3712.2771977499997</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="8">
         <f ca="1">Q2-V2</f>
         <v>291.02117929999895</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
     </row>
-    <row r="3" spans="2:34" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:34" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="2:34" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AG4" s="22" t="s">
+    <row r="4" spans="2:34" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AG4" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:34" s="31" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="2:34" s="30" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="23" t="s">
+      <c r="U5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="23" t="s">
+      <c r="V5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="W5" s="23" t="s">
+      <c r="W5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="X5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="26" t="s">
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="23" t="s">
+      <c r="AA5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AC5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AD5" s="30" t="s">
+      <c r="AD5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="35" t="e" vm="1">
+      <c r="C6" s="34" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D6" s="36" t="str" cm="1">
+      <c r="D6" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_FV(C6,"Official name",TRUE)</f>
         <v>CMC MARKETS PLC</v>
       </c>
-      <c r="E6" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B6)</f>
+      <c r="E6" s="36">
         <v>945</v>
       </c>
-      <c r="F6" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B6)</f>
+      <c r="F6" s="36">
         <v>316</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="36">
         <f t="shared" ref="G6:G21" si="0">F6*E6/100</f>
         <v>2986.2</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <f t="shared" ref="H6:H21" ca="1" si="1">I6*E6/100</f>
         <v>2948.4</v>
       </c>
-      <c r="I6" s="37" cm="1">
+      <c r="I6" s="36" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">_FV(C6,"Price")</f>
         <v>312</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <f t="shared" ref="J6:J21" ca="1" si="2">H6-G6</f>
         <v>-37.799999999999727</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="38">
         <f t="shared" ref="K6:K21" ca="1" si="3">J6/G6</f>
         <v>-1.2658227848101175E-2</v>
       </c>
-      <c r="L6" s="40" cm="1">
+      <c r="L6" s="39" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_FV(C6,"Change")</f>
         <v>-14.5</v>
       </c>
-      <c r="M6" s="39" cm="1">
+      <c r="M6" s="38" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_FV(C6,"Change (%)",TRUE)</f>
         <v>-4.4409999999999998E-2</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="40">
         <f ca="1">M6*G6</f>
         <v>-132.61714199999997</v>
       </c>
-      <c r="O6" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B6)</f>
+      <c r="O6" s="41">
         <v>268.59999999999997</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="38">
         <f t="shared" ref="P6:P21" si="4">O6/F6-1</f>
         <v>-0.15000000000000013</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="40">
         <f t="shared" ref="Q6:Q21" si="5">P6*G6</f>
         <v>-447.93000000000035</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="42">
         <f t="shared" ref="R6:R21" ca="1" si="6">O6/I6-1</f>
         <v>-0.13910256410256416</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="36">
         <f ca="1">IF(K6&lt;0.1,O6,IF(K6&lt;0.125,F6*1,IF(K6&lt;0.15,F6*1.02,IF(K6&lt;0.2,F6*1.05,IF(K6&lt;0.3,F6*1.1,I6*0.85)))))</f>
         <v>268.59999999999997</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="36">
         <f ca="1">S6*0.98</f>
         <v>263.22799999999995</v>
       </c>
-      <c r="U6" s="39">
+      <c r="U6" s="38">
         <f t="shared" ref="U6:U21" ca="1" si="7">S6/F6-1</f>
         <v>-0.15000000000000013</v>
       </c>
-      <c r="V6" s="41">
+      <c r="V6" s="40">
         <f t="shared" ref="V6:V21" ca="1" si="8">U6*G6</f>
         <v>-447.93000000000035</v>
       </c>
-      <c r="W6" s="43">
+      <c r="W6" s="42">
         <f ca="1">S6/I6-1</f>
         <v>-0.13910256410256416</v>
       </c>
-      <c r="X6" s="37" t="str">
+      <c r="X6" s="36" t="str">
         <f ca="1">IF(OR(S6&lt;=O6,ABS(R6)-ABS(W6)&lt;1%),"OK","RAISE")</f>
         <v>OK</v>
       </c>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="45" cm="1">
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="44" cm="1">
         <f t="array" aca="1" ref="Z6" ca="1">_FV(C6,"P/E",TRUE)</f>
         <v>13.6751</v>
       </c>
-      <c r="AA6" s="46" cm="1">
+      <c r="AA6" s="45" cm="1">
         <f t="array" aca="1" ref="AA6" ca="1">_FV(C6,"Market cap",TRUE)/1000000</f>
         <v>867.42790000000002</v>
       </c>
-      <c r="AB6" s="45" cm="1">
+      <c r="AB6" s="44" cm="1">
         <f t="array" aca="1" ref="AB6" ca="1">_FV(C6,"52 week high",TRUE)</f>
         <v>335.5</v>
       </c>
-      <c r="AC6" s="45" cm="1">
+      <c r="AC6" s="44" cm="1">
         <f t="array" aca="1" ref="AC6" ca="1">_FV(C6,"52 week low",TRUE)</f>
         <v>183.4</v>
       </c>
-      <c r="AD6" s="47" t="str" cm="1">
+      <c r="AD6" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD6" ca="1">_FV(C6,"Industry")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
-      <c r="AG6" s="32" t="s">
+      <c r="AG6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AH6" s="48">
+      <c r="AH6" s="47">
         <v>-0.15</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="49" t="e" vm="2">
+      <c r="C7" s="48" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="36" t="str" cm="1">
+      <c r="D7" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">_FV(C7,"Official name",TRUE)</f>
         <v>SCIENCE GROUP PLC</v>
       </c>
-      <c r="E7" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B7)</f>
+      <c r="E7" s="36">
         <v>543</v>
       </c>
-      <c r="F7" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B7)</f>
+      <c r="F7" s="36">
         <v>560</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="36">
         <f t="shared" si="0"/>
         <v>3040.8</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>2959.35</v>
       </c>
-      <c r="I7" s="37" cm="1">
+      <c r="I7" s="36" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">_FV(C7,"Price")</f>
         <v>545</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>-81.450000000000273</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>-2.6785714285714374E-2</v>
       </c>
-      <c r="L7" s="40" cm="1">
+      <c r="L7" s="39" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_FV(C7,"Change")</f>
         <v>2.5</v>
       </c>
-      <c r="M7" s="39" cm="1">
+      <c r="M7" s="38" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_FV(C7,"Change (%)",TRUE)</f>
         <v>4.6080000000000001E-3</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="40">
         <f t="shared" ref="N7:N21" ca="1" si="9">M7*G7</f>
         <v>14.012006400000001</v>
       </c>
-      <c r="O7" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B7)</f>
+      <c r="O7" s="41">
         <v>476</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="38">
         <f t="shared" si="4"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="40">
         <f t="shared" si="5"/>
         <v>-456.12000000000012</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.12660550458715591</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="36">
         <f t="shared" ref="S7:S21" ca="1" si="10">IF(K7&lt;0.1,O7,IF(K7&lt;0.125,F7*1,IF(K7&lt;0.15,F7*1.02,IF(K7&lt;0.2,F7*1.05,IF(K7&lt;0.3,F7*1.1,I7*0.85)))))</f>
         <v>476</v>
       </c>
-      <c r="T7" s="37">
+      <c r="T7" s="36">
         <f t="shared" ref="T7:T21" ca="1" si="11">S7*0.98</f>
         <v>466.48</v>
       </c>
-      <c r="U7" s="39">
+      <c r="U7" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="V7" s="41">
+      <c r="V7" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>-456.12000000000012</v>
       </c>
-      <c r="W7" s="43">
+      <c r="W7" s="42">
         <f t="shared" ref="W7:W21" ca="1" si="12">S7/I7-1</f>
         <v>-0.12660550458715591</v>
       </c>
-      <c r="X7" s="37" t="str">
+      <c r="X7" s="36" t="str">
         <f t="shared" ref="X7:X21" ca="1" si="13">IF(OR(S7&lt;=O7,ABS(R7)-ABS(W7)&lt;1%),"OK","RAISE")</f>
         <v>OK</v>
       </c>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="45" cm="1">
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="44" cm="1">
         <f t="array" aca="1" ref="Z7" ca="1">_FV(C7,"P/E",TRUE)</f>
         <v>7.8648999999999996</v>
       </c>
-      <c r="AA7" s="46" cm="1">
+      <c r="AA7" s="45" cm="1">
         <f t="array" aca="1" ref="AA7" ca="1">_FV(C7,"Market cap",TRUE)/1000000</f>
         <v>239.0504</v>
       </c>
-      <c r="AB7" s="45" cm="1">
+      <c r="AB7" s="44" cm="1">
         <f t="array" aca="1" ref="AB7" ca="1">_FV(C7,"52 week high",TRUE)</f>
         <v>605</v>
       </c>
-      <c r="AC7" s="45" cm="1">
+      <c r="AC7" s="44" cm="1">
         <f t="array" aca="1" ref="AC7" ca="1">_FV(C7,"52 week low",TRUE)</f>
         <v>400</v>
       </c>
-      <c r="AD7" s="47" t="str" cm="1">
+      <c r="AD7" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD7" ca="1">_FV(C7,"Industry")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
@@ -4392,2615 +4164,2580 @@
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="49" t="e" vm="3">
+      <c r="C8" s="48" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="36" t="str" cm="1">
+      <c r="D8" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">_FV(C8,"Official name",TRUE)</f>
         <v>AEP PLANTATIONS PLC</v>
       </c>
-      <c r="E8" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B8)</f>
+      <c r="E8" s="36">
         <v>169.4</v>
       </c>
-      <c r="F8" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B8)</f>
+      <c r="F8" s="36">
         <v>1450</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <f t="shared" si="0"/>
         <v>2456.3000000000002</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>2532.5300000000002</v>
       </c>
-      <c r="I8" s="37" cm="1">
+      <c r="I8" s="36" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">_FV(C8,"Price")</f>
         <v>1495</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>3.1034482758620696E-2</v>
       </c>
-      <c r="L8" s="40" cm="1">
+      <c r="L8" s="39" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_FV(C8,"Change")</f>
         <v>5</v>
       </c>
-      <c r="M8" s="39" cm="1">
+      <c r="M8" s="38" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_FV(C8,"Change (%)",TRUE)</f>
         <v>3.356E-3</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>8.2433428000000006</v>
       </c>
-      <c r="O8" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B8)</f>
+      <c r="O8" s="41">
         <v>1232.5</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="38">
         <f t="shared" si="4"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="40">
         <f t="shared" si="5"/>
         <v>-368.44500000000011</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.17558528428093645</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>1232.5</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>1207.8499999999999</v>
       </c>
-      <c r="U8" s="39">
+      <c r="U8" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="V8" s="41">
+      <c r="V8" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>-368.44500000000011</v>
       </c>
-      <c r="W8" s="43">
+      <c r="W8" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.17558528428093645</v>
       </c>
-      <c r="X8" s="37" t="str">
+      <c r="X8" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="45" cm="1">
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="44" cm="1">
         <f t="array" aca="1" ref="Z8" ca="1">_FV(C8,"P/E",TRUE)</f>
         <v>9.1801999999999992</v>
       </c>
-      <c r="AA8" s="46" cm="1">
+      <c r="AA8" s="45" cm="1">
         <f t="array" aca="1" ref="AA8" ca="1">_FV(C8,"Market cap",TRUE)/1000000</f>
         <v>532.92060000000004</v>
       </c>
-      <c r="AB8" s="45" cm="1">
+      <c r="AB8" s="44" cm="1">
         <f t="array" aca="1" ref="AB8" ca="1">_FV(C8,"52 week high",TRUE)</f>
         <v>1535</v>
       </c>
-      <c r="AC8" s="45" cm="1">
+      <c r="AC8" s="44" cm="1">
         <f t="array" aca="1" ref="AC8" ca="1">_FV(C8,"52 week low",TRUE)</f>
         <v>640</v>
       </c>
-      <c r="AD8" s="47" t="str" cm="1">
+      <c r="AD8" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD8" ca="1">_FV(C8,"Industry")</f>
         <v>Food &amp; Tobacco</v>
       </c>
-      <c r="AG8" s="32" t="s">
+      <c r="AG8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AH8" s="48">
+      <c r="AH8" s="47">
         <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="49" t="e" vm="4">
+      <c r="C9" s="48" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="36" t="str" cm="1">
+      <c r="D9" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_FV(C9,"Official name",TRUE)</f>
         <v>YU GROUP PLC</v>
       </c>
-      <c r="E9" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B9)</f>
+      <c r="E9" s="36">
         <v>183</v>
       </c>
-      <c r="F9" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B9)</f>
+      <c r="F9" s="36">
         <v>1670</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <f t="shared" si="0"/>
         <v>3056.1</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>3550.2</v>
       </c>
-      <c r="I9" s="37" cm="1">
+      <c r="I9" s="36" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">_FV(C9,"Price")</f>
         <v>1940</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>494.09999999999991</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>0.1616766467065868</v>
       </c>
-      <c r="L9" s="40" cm="1">
+      <c r="L9" s="39" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_FV(C9,"Change")</f>
         <v>0</v>
       </c>
-      <c r="M9" s="39" cm="1">
+      <c r="M9" s="38" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_FV(C9,"Change (%)",TRUE)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="O9" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B9)</f>
+      <c r="O9" s="41">
         <v>1750</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="38">
         <f t="shared" si="4"/>
         <v>4.7904191616766401E-2</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="40">
         <f t="shared" si="5"/>
         <v>146.39999999999978</v>
       </c>
-      <c r="R9" s="43">
+      <c r="R9" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-9.7938144329896892E-2</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>1753.5</v>
       </c>
-      <c r="T9" s="37">
+      <c r="T9" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>1718.43</v>
       </c>
-      <c r="U9" s="39">
+      <c r="U9" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V9" s="41">
+      <c r="V9" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>152.80500000000012</v>
       </c>
-      <c r="W9" s="43">
+      <c r="W9" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-9.6134020618556693E-2</v>
       </c>
-      <c r="X9" s="37" t="str">
+      <c r="X9" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="45" cm="1">
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44" cm="1">
         <f t="array" aca="1" ref="Z9" ca="1">_FV(C9,"P/E",TRUE)</f>
         <v>9.1402000000000001</v>
       </c>
-      <c r="AA9" s="46" cm="1">
+      <c r="AA9" s="45" cm="1">
         <f t="array" aca="1" ref="AA9" ca="1">_FV(C9,"Market cap",TRUE)/1000000</f>
         <v>271.23419999999999</v>
       </c>
-      <c r="AB9" s="45" cm="1">
+      <c r="AB9" s="44" cm="1">
         <f t="array" aca="1" ref="AB9" ca="1">_FV(C9,"52 week high",TRUE)</f>
         <v>1950</v>
       </c>
-      <c r="AC9" s="45" cm="1">
+      <c r="AC9" s="44" cm="1">
         <f t="array" aca="1" ref="AC9" ca="1">_FV(C9,"52 week low",TRUE)</f>
         <v>1286</v>
       </c>
-      <c r="AD9" s="47" t="str" cm="1">
+      <c r="AD9" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD9" ca="1">_FV(C9,"Industry")</f>
         <v>Multiline Utilities</v>
       </c>
-      <c r="AG9" s="32" t="s">
+      <c r="AG9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AH9" s="48">
+      <c r="AH9" s="47">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="49" t="e" vm="5">
+      <c r="C10" s="48" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="36" t="str" cm="1">
+      <c r="D10" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">_FV(C10,"Official name",TRUE)</f>
         <v>KIER GROUP PLC</v>
       </c>
-      <c r="E10" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B10)</f>
+      <c r="E10" s="36">
         <v>1120</v>
       </c>
-      <c r="F10" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B10)</f>
+      <c r="F10" s="36">
         <v>222</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <f t="shared" si="0"/>
         <v>2486.4</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>2654.4</v>
       </c>
-      <c r="I10" s="37" cm="1">
+      <c r="I10" s="36" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">_FV(C10,"Price")</f>
         <v>237</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>168</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>6.7567567567567571E-2</v>
       </c>
-      <c r="L10" s="40" cm="1">
+      <c r="L10" s="39" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">_FV(C10,"Change")</f>
         <v>5</v>
       </c>
-      <c r="M10" s="39" cm="1">
+      <c r="M10" s="38" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_FV(C10,"Change (%)",TRUE)</f>
         <v>2.1551999999999998E-2</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>53.586892800000001</v>
       </c>
-      <c r="O10" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B10)</f>
+      <c r="O10" s="41">
         <v>188.7</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="38">
         <f t="shared" si="4"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="40">
         <f t="shared" si="5"/>
         <v>-372.96000000000009</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.20379746835443047</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>188.7</v>
       </c>
-      <c r="T10" s="37">
+      <c r="T10" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>184.92599999999999</v>
       </c>
-      <c r="U10" s="39">
+      <c r="U10" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="V10" s="41">
+      <c r="V10" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>-372.96000000000009</v>
       </c>
-      <c r="W10" s="43">
+      <c r="W10" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.20379746835443047</v>
       </c>
-      <c r="X10" s="37" t="str">
+      <c r="X10" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="45" cm="1">
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="44" cm="1">
         <f t="array" aca="1" ref="Z10" ca="1">_FV(C10,"P/E",TRUE)</f>
         <v>18.485099999999999</v>
       </c>
-      <c r="AA10" s="46" cm="1">
+      <c r="AA10" s="45" cm="1">
         <f t="array" aca="1" ref="AA10" ca="1">_FV(C10,"Market cap",TRUE)/1000000</f>
         <v>958.91629999999998</v>
       </c>
-      <c r="AB10" s="45" cm="1">
+      <c r="AB10" s="44" cm="1">
         <f t="array" aca="1" ref="AB10" ca="1">_FV(C10,"52 week high",TRUE)</f>
         <v>238</v>
       </c>
-      <c r="AC10" s="45" cm="1">
+      <c r="AC10" s="44" cm="1">
         <f t="array" aca="1" ref="AC10" ca="1">_FV(C10,"52 week low",TRUE)</f>
         <v>107.2</v>
       </c>
-      <c r="AD10" s="47" t="str" cm="1">
+      <c r="AD10" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD10" ca="1">_FV(C10,"Industry")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="AG10" s="32" t="s">
+      <c r="AG10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AH10" s="48" t="s">
+      <c r="AH10" s="47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="49" t="e" vm="6">
+      <c r="C11" s="48" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="36" t="str" cm="1">
+      <c r="D11" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">_FV(C11,"Official name",TRUE)</f>
         <v>KELLER GROUP PLC</v>
       </c>
-      <c r="E11" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B11)</f>
+      <c r="E11" s="36">
         <v>175</v>
       </c>
-      <c r="F11" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B11)</f>
+      <c r="F11" s="36">
         <v>1714</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <f t="shared" si="0"/>
         <v>2999.5</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>3346</v>
       </c>
-      <c r="I11" s="37" cm="1">
+      <c r="I11" s="36" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">_FV(C11,"Price")</f>
         <v>1912</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>346.5</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>0.11551925320886815</v>
       </c>
-      <c r="L11" s="40" cm="1">
+      <c r="L11" s="39" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_FV(C11,"Change")</f>
         <v>8</v>
       </c>
-      <c r="M11" s="39" cm="1">
+      <c r="M11" s="38" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_FV(C11,"Change (%)",TRUE)</f>
         <v>4.202E-3</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>12.603899</v>
       </c>
-      <c r="O11" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B11)</f>
+      <c r="O11" s="41">
         <v>1748</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="38">
         <f t="shared" si="4"/>
         <v>1.9836639439906545E-2</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="40">
         <f t="shared" si="5"/>
         <v>59.49999999999968</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-8.5774058577405832E-2</v>
       </c>
-      <c r="S11" s="37">
+      <c r="S11" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>1714</v>
       </c>
-      <c r="T11" s="37">
+      <c r="T11" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>1679.72</v>
       </c>
-      <c r="U11" s="39">
+      <c r="U11" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="V11" s="41">
+      <c r="V11" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="W11" s="43">
+      <c r="W11" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.10355648535564854</v>
       </c>
-      <c r="X11" s="37" t="str">
+      <c r="X11" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="45" cm="1">
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="44" cm="1">
         <f t="array" aca="1" ref="Z11" ca="1">_FV(C11,"P/E",TRUE)</f>
         <v>9.7125000000000004</v>
       </c>
-      <c r="AA11" s="46" cm="1">
+      <c r="AA11" s="45" cm="1">
         <f t="array" aca="1" ref="AA11" ca="1">_FV(C11,"Market cap",TRUE)/1000000</f>
         <v>1169.6220000000001</v>
       </c>
-      <c r="AB11" s="45" cm="1">
+      <c r="AB11" s="44" cm="1">
         <f t="array" aca="1" ref="AB11" ca="1">_FV(C11,"52 week high",TRUE)</f>
         <v>1922</v>
       </c>
-      <c r="AC11" s="45" cm="1">
+      <c r="AC11" s="44" cm="1">
         <f t="array" aca="1" ref="AC11" ca="1">_FV(C11,"52 week low",TRUE)</f>
         <v>1222</v>
       </c>
-      <c r="AD11" s="47" t="str" cm="1">
+      <c r="AD11" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD11" ca="1">_FV(C11,"Industry")</f>
         <v>Construction &amp; Engineering</v>
       </c>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="49" t="e" vm="7">
+      <c r="C12" s="48" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="36" t="str" cm="1">
+      <c r="D12" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">_FV(C12,"Official name",TRUE)</f>
         <v>FRP ADVISORY GROUP PLC</v>
       </c>
-      <c r="E12" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B12)</f>
+      <c r="E12" s="36">
         <v>2267</v>
       </c>
-      <c r="F12" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B12)</f>
+      <c r="F12" s="36">
         <v>133</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <f t="shared" si="0"/>
         <v>3015.11</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>3015.11</v>
       </c>
-      <c r="I12" s="37" cm="1">
+      <c r="I12" s="36" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">_FV(C12,"Price")</f>
         <v>133</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="40" cm="1">
+      <c r="L12" s="39" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">_FV(C12,"Change")</f>
         <v>-2.5</v>
       </c>
-      <c r="M12" s="39" cm="1">
+      <c r="M12" s="38" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_FV(C12,"Change (%)",TRUE)</f>
         <v>-1.8450000000000001E-2</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>-55.628779500000007</v>
       </c>
-      <c r="O12" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B12)</f>
+      <c r="O12" s="41">
         <v>113.05</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="38">
         <f t="shared" si="4"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="40">
         <f t="shared" si="5"/>
         <v>-452.26650000000006</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="S12" s="37">
+      <c r="S12" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>113.05</v>
       </c>
-      <c r="T12" s="37">
+      <c r="T12" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>110.789</v>
       </c>
-      <c r="U12" s="39">
+      <c r="U12" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="V12" s="41">
+      <c r="V12" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>-452.26650000000006</v>
       </c>
-      <c r="W12" s="43">
+      <c r="W12" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="X12" s="37" t="str">
+      <c r="X12" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="45" cm="1">
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="44" cm="1">
         <f t="array" aca="1" ref="Z12" ca="1">_FV(C12,"P/E",TRUE)</f>
         <v>14.657999999999999</v>
       </c>
-      <c r="AA12" s="46" cm="1">
+      <c r="AA12" s="45" cm="1">
         <f t="array" aca="1" ref="AA12" ca="1">_FV(C12,"Market cap",TRUE)/1000000</f>
         <v>343.3329</v>
       </c>
-      <c r="AB12" s="45" cm="1">
+      <c r="AB12" s="44" cm="1">
         <f t="array" aca="1" ref="AB12" ca="1">_FV(C12,"52 week high",TRUE)</f>
         <v>151</v>
       </c>
-      <c r="AC12" s="45" cm="1">
+      <c r="AC12" s="44" cm="1">
         <f t="array" aca="1" ref="AC12" ca="1">_FV(C12,"52 week low",TRUE)</f>
         <v>113.5</v>
       </c>
-      <c r="AD12" s="47" t="str" cm="1">
+      <c r="AD12" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD12" ca="1">_FV(C12,"Industry")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="49" t="e" vm="8">
+      <c r="C13" s="48" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="36" t="str" cm="1">
+      <c r="D13" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">_FV(C13,"Official name",TRUE)</f>
         <v>VICTORIAN PLUMBING GROUP PLC</v>
       </c>
-      <c r="E13" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B13)</f>
+      <c r="E13" s="36">
         <v>3240</v>
       </c>
-      <c r="F13" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B13)</f>
+      <c r="F13" s="36">
         <v>79.36</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <f t="shared" si="0"/>
         <v>2571.2640000000001</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>2844.72</v>
       </c>
-      <c r="I13" s="37" cm="1">
+      <c r="I13" s="36" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">_FV(C13,"Price")</f>
         <v>87.8</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>273.45599999999968</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>0.10635080645161277</v>
       </c>
-      <c r="L13" s="40" cm="1">
+      <c r="L13" s="39" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">_FV(C13,"Change")</f>
         <v>1.8</v>
       </c>
-      <c r="M13" s="39" cm="1">
+      <c r="M13" s="38" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_FV(C13,"Change (%)",TRUE)</f>
         <v>2.0930000000000001E-2</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>53.816555520000001</v>
       </c>
-      <c r="O13" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B13)</f>
+      <c r="O13" s="41">
         <v>81</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="38">
         <f t="shared" si="4"/>
         <v>2.066532258064524E-2</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="40">
         <f t="shared" si="5"/>
         <v>53.136000000000202</v>
       </c>
-      <c r="R13" s="43">
+      <c r="R13" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-7.7448747152619513E-2</v>
       </c>
-      <c r="S13" s="37">
+      <c r="S13" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>79.36</v>
       </c>
-      <c r="T13" s="37">
+      <c r="T13" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>77.772800000000004</v>
       </c>
-      <c r="U13" s="39">
+      <c r="U13" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="V13" s="41">
+      <c r="V13" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="W13" s="43">
+      <c r="W13" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-9.6127562642368991E-2</v>
       </c>
-      <c r="X13" s="37" t="str">
+      <c r="X13" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="45" cm="1">
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="44" cm="1">
         <f t="array" aca="1" ref="Z13" ca="1">_FV(C13,"P/E",TRUE)</f>
         <v>19.087</v>
       </c>
-      <c r="AA13" s="46" cm="1">
+      <c r="AA13" s="45" cm="1">
         <f t="array" aca="1" ref="AA13" ca="1">_FV(C13,"Market cap",TRUE)/1000000</f>
         <v>262.9633</v>
       </c>
-      <c r="AB13" s="45" cm="1">
+      <c r="AB13" s="44" cm="1">
         <f t="array" aca="1" ref="AB13" ca="1">_FV(C13,"52 week high",TRUE)</f>
         <v>109</v>
       </c>
-      <c r="AC13" s="45" cm="1">
+      <c r="AC13" s="44" cm="1">
         <f t="array" aca="1" ref="AC13" ca="1">_FV(C13,"52 week low",TRUE)</f>
         <v>56.8</v>
       </c>
-      <c r="AD13" s="47" t="str" cm="1">
+      <c r="AD13" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD13" ca="1">_FV(C13,"Industry")</f>
         <v>Household Goods</v>
       </c>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="49" t="e" vm="9">
+      <c r="C14" s="48" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="36" t="str" cm="1">
+      <c r="D14" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">_FV(C14,"Official name",TRUE)</f>
         <v>M.P. EVANS GROUP PLC</v>
       </c>
-      <c r="E14" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B14)</f>
+      <c r="E14" s="36">
         <v>279</v>
       </c>
-      <c r="F14" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B14)</f>
+      <c r="F14" s="36">
         <v>1240</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <f t="shared" si="0"/>
         <v>3459.6</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>4254.75</v>
       </c>
-      <c r="I14" s="37" cm="1">
+      <c r="I14" s="36" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">_FV(C14,"Price")</f>
         <v>1525</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>795.15000000000009</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>0.2298387096774194</v>
       </c>
-      <c r="L14" s="40" cm="1">
+      <c r="L14" s="39" cm="1">
         <f t="array" aca="1" ref="L14" ca="1">_FV(C14,"Change")</f>
         <v>145</v>
       </c>
-      <c r="M14" s="39" cm="1">
+      <c r="M14" s="38" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_FV(C14,"Change (%)",TRUE)</f>
         <v>0.105072</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>363.50709119999999</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="41">
         <v>1365</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="38">
         <f t="shared" si="4"/>
         <v>0.10080645161290325</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="40">
         <f t="shared" si="5"/>
         <v>348.75000000000006</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.10491803278688527</v>
       </c>
-      <c r="S14" s="37">
+      <c r="S14" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>1364</v>
       </c>
-      <c r="T14" s="37">
+      <c r="T14" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>1336.72</v>
       </c>
-      <c r="U14" s="39">
+      <c r="U14" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>345.96000000000032</v>
       </c>
-      <c r="W14" s="43">
+      <c r="W14" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.10557377049180328</v>
       </c>
-      <c r="X14" s="37" t="str">
+      <c r="X14" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="45" cm="1">
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="44" cm="1">
         <f t="array" aca="1" ref="Z14" ca="1">_FV(C14,"P/E",TRUE)</f>
         <v>10.1647</v>
       </c>
-      <c r="AA14" s="46" cm="1">
+      <c r="AA14" s="45" cm="1">
         <f t="array" aca="1" ref="AA14" ca="1">_FV(C14,"Market cap",TRUE)/1000000</f>
         <v>657.82010000000002</v>
       </c>
-      <c r="AB14" s="45" cm="1">
+      <c r="AB14" s="44" cm="1">
         <f t="array" aca="1" ref="AB14" ca="1">_FV(C14,"52 week high",TRUE)</f>
         <v>1525</v>
       </c>
-      <c r="AC14" s="45" cm="1">
+      <c r="AC14" s="44" cm="1">
         <f t="array" aca="1" ref="AC14" ca="1">_FV(C14,"52 week low",TRUE)</f>
         <v>912</v>
       </c>
-      <c r="AD14" s="47" t="str" cm="1">
+      <c r="AD14" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD14" ca="1">_FV(C14,"Industry")</f>
         <v>Food &amp; Tobacco</v>
       </c>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="49" t="e" vm="10">
+      <c r="C15" s="48" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="36" t="str" cm="1">
+      <c r="D15" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">_FV(C15,"Official name",TRUE)</f>
         <v>HUNTING PLC</v>
       </c>
-      <c r="E15" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B15)</f>
+      <c r="E15" s="36">
         <v>733.69899999999996</v>
       </c>
-      <c r="F15" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B15)</f>
+      <c r="F15" s="36">
         <v>406.6</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <f t="shared" si="0"/>
         <v>2983.2201340000001</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>3547.4346649999998</v>
       </c>
-      <c r="I15" s="37" cm="1">
+      <c r="I15" s="36" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">_FV(C15,"Price")</f>
         <v>483.5</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>564.21453099999962</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>0.18912936546974901</v>
       </c>
-      <c r="L15" s="40" cm="1">
+      <c r="L15" s="39" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">_FV(C15,"Change")</f>
         <v>8</v>
       </c>
-      <c r="M15" s="39" cm="1">
+      <c r="M15" s="38" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_FV(C15,"Change (%)",TRUE)</f>
         <v>1.6823999999999999E-2</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>50.189695534415996</v>
       </c>
-      <c r="O15" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B15)</f>
+      <c r="O15" s="41">
         <v>430</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="38">
         <f t="shared" si="4"/>
         <v>5.7550418101327994E-2</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="40">
         <f t="shared" si="5"/>
         <v>171.68556599999974</v>
       </c>
-      <c r="R15" s="43">
+      <c r="R15" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.11065149948293695</v>
       </c>
-      <c r="S15" s="37">
+      <c r="S15" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>426.93000000000006</v>
       </c>
-      <c r="T15" s="37">
+      <c r="T15" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>418.39140000000003</v>
       </c>
-      <c r="U15" s="39">
+      <c r="U15" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V15" s="41">
+      <c r="V15" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>149.16100670000014</v>
       </c>
-      <c r="W15" s="43">
+      <c r="W15" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.11700103412616325</v>
       </c>
-      <c r="X15" s="37" t="str">
+      <c r="X15" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="45" cm="1">
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="44" cm="1">
         <f t="array" aca="1" ref="Z15" ca="1">_FV(C15,"P/E",TRUE)</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="46" cm="1">
+      <c r="AA15" s="45" cm="1">
         <f t="array" aca="1" ref="AA15" ca="1">_FV(C15,"Market cap",TRUE)/1000000</f>
         <v>626.66610000000003</v>
       </c>
-      <c r="AB15" s="45" cm="1">
+      <c r="AB15" s="44" cm="1">
         <f t="array" aca="1" ref="AB15" ca="1">_FV(C15,"52 week high",TRUE)</f>
         <v>485</v>
       </c>
-      <c r="AC15" s="45" cm="1">
+      <c r="AC15" s="44" cm="1">
         <f t="array" aca="1" ref="AC15" ca="1">_FV(C15,"52 week low",TRUE)</f>
         <v>245</v>
       </c>
-      <c r="AD15" s="47" t="str" cm="1">
+      <c r="AD15" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD15" ca="1">_FV(C15,"Industry")</f>
         <v>Oil &amp; Gas Related Equipment and Services</v>
       </c>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="49" t="e" vm="11">
+      <c r="C16" s="48" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="D16" s="36" t="str" cm="1">
+      <c r="D16" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">_FV(C16,"Official name",TRUE)</f>
         <v>RAMSDENS HOLDINGS PLC.</v>
       </c>
-      <c r="E16" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B16)</f>
+      <c r="E16" s="36">
         <v>580</v>
       </c>
-      <c r="F16" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B16)</f>
+      <c r="F16" s="36">
         <v>435</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <f t="shared" si="0"/>
         <v>2523</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>2581</v>
       </c>
-      <c r="I16" s="37" cm="1">
+      <c r="I16" s="36" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">_FV(C16,"Price")</f>
         <v>445</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>2.2988505747126436E-2</v>
       </c>
-      <c r="L16" s="40" cm="1">
+      <c r="L16" s="39" cm="1">
         <f t="array" aca="1" ref="L16" ca="1">_FV(C16,"Change")</f>
         <v>5</v>
       </c>
-      <c r="M16" s="39" cm="1">
+      <c r="M16" s="38" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_FV(C16,"Change (%)",TRUE)</f>
         <v>1.1364000000000001E-2</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>28.671372000000002</v>
       </c>
-      <c r="O16" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B16)</f>
+      <c r="O16" s="41">
         <v>369.75</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="38">
         <f t="shared" si="4"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="40">
         <f t="shared" si="5"/>
         <v>-378.45000000000005</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.16910112359550566</v>
       </c>
-      <c r="S16" s="37">
+      <c r="S16" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>369.75</v>
       </c>
-      <c r="T16" s="37">
+      <c r="T16" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>362.35500000000002</v>
       </c>
-      <c r="U16" s="39">
+      <c r="U16" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="V16" s="41">
+      <c r="V16" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>-378.45000000000005</v>
       </c>
-      <c r="W16" s="43">
+      <c r="W16" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.16910112359550566</v>
       </c>
-      <c r="X16" s="37" t="str">
+      <c r="X16" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="45" cm="1">
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="44" cm="1">
         <f t="array" aca="1" ref="Z16" ca="1">_FV(C16,"P/E",TRUE)</f>
         <v>12.0238</v>
       </c>
-      <c r="AA16" s="46" cm="1">
+      <c r="AA16" s="45" cm="1">
         <f t="array" aca="1" ref="AA16" ca="1">_FV(C16,"Market cap",TRUE)/1000000</f>
         <v>135.89429999999999</v>
       </c>
-      <c r="AB16" s="45" cm="1">
+      <c r="AB16" s="44" cm="1">
         <f t="array" aca="1" ref="AB16" ca="1">_FV(C16,"52 week high",TRUE)</f>
         <v>470</v>
       </c>
-      <c r="AC16" s="45" cm="1">
+      <c r="AC16" s="44" cm="1">
         <f t="array" aca="1" ref="AC16" ca="1">_FV(C16,"52 week low",TRUE)</f>
         <v>195.732</v>
       </c>
-      <c r="AD16" s="47" t="str" cm="1">
+      <c r="AD16" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD16" ca="1">_FV(C16,"Industry")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="49" t="e" vm="12">
+      <c r="C17" s="48" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="50" t="str" cm="1">
+      <c r="D17" s="49" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">_FV(C17,"Official name",TRUE)</f>
         <v>SERAPHIM SPACE INVESTMENT TRUST PLC</v>
       </c>
-      <c r="E17" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B17)</f>
+      <c r="E17" s="36">
         <v>114.307</v>
       </c>
-      <c r="F17" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B17)</f>
+      <c r="F17" s="36">
         <v>140.9</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="36">
         <f t="shared" si="0"/>
         <v>161.05856300000002</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>156.029055</v>
       </c>
-      <c r="I17" s="37" cm="1">
+      <c r="I17" s="36" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">_FV(C17,"Price")</f>
         <v>136.5</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="50">
         <f t="shared" ca="1" si="2"/>
         <v>-5.0295080000000212</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>-3.1227821149751724E-2</v>
       </c>
-      <c r="L17" s="40" cm="1">
+      <c r="L17" s="39" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">_FV(C17,"Change")</f>
         <v>-8</v>
       </c>
-      <c r="M17" s="39" cm="1">
+      <c r="M17" s="38" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_FV(C17,"Change (%)",TRUE)</f>
         <v>-5.5362999999999996E-2</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>-8.9166852233690008</v>
       </c>
-      <c r="O17" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B17)</f>
+      <c r="O17" s="41">
         <v>119.765</v>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="38">
         <f t="shared" si="4"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="40">
         <f t="shared" si="5"/>
         <v>-24.158784450000006</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.12260073260073256</v>
       </c>
-      <c r="S17" s="37">
+      <c r="S17" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>119.765</v>
       </c>
-      <c r="T17" s="37">
+      <c r="T17" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>117.36969999999999</v>
       </c>
-      <c r="U17" s="39">
+      <c r="U17" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="V17" s="41">
+      <c r="V17" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>-24.158784450000006</v>
       </c>
-      <c r="W17" s="43">
+      <c r="W17" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.12260073260073256</v>
       </c>
-      <c r="X17" s="37" t="str">
+      <c r="X17" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="45" cm="1">
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="44" cm="1">
         <f t="array" aca="1" ref="Z17" ca="1">_FV(C17,"P/E",TRUE)</f>
         <v>6.0430000000000001</v>
       </c>
-      <c r="AA17" s="46" cm="1">
+      <c r="AA17" s="45" cm="1">
         <f t="array" aca="1" ref="AA17" ca="1">_FV(C17,"Market cap",TRUE)/1000000</f>
         <v>352.23989999999998</v>
       </c>
-      <c r="AB17" s="45" cm="1">
+      <c r="AB17" s="44" cm="1">
         <f t="array" aca="1" ref="AB17" ca="1">_FV(C17,"52 week high",TRUE)</f>
         <v>153</v>
       </c>
-      <c r="AC17" s="45" cm="1">
+      <c r="AC17" s="44" cm="1">
         <f t="array" aca="1" ref="AC17" ca="1">_FV(C17,"52 week low",TRUE)</f>
         <v>44.8</v>
       </c>
-      <c r="AD17" s="47" t="str" cm="1">
+      <c r="AD17" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD17" ca="1">_FV(C17,"Industry")</f>
         <v>Collective Investments</v>
       </c>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="49" t="e" vm="13">
+      <c r="C18" s="48" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="D18" s="50" t="str" cm="1">
+      <c r="D18" s="49" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">_FV(C18,"Official name",TRUE)</f>
         <v>INVESTEC PLC</v>
       </c>
-      <c r="E18" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B18)</f>
+      <c r="E18" s="36">
         <v>24</v>
       </c>
-      <c r="F18" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B18)</f>
+      <c r="F18" s="36">
         <v>619</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <f t="shared" si="0"/>
         <v>148.56</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>149.28</v>
       </c>
-      <c r="I18" s="37" cm="1">
+      <c r="I18" s="36" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">_FV(C18,"Price")</f>
         <v>622</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="50">
         <f t="shared" ca="1" si="2"/>
         <v>0.71999999999999886</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>4.8465266558965995E-3</v>
       </c>
-      <c r="L18" s="40" cm="1">
+      <c r="L18" s="39" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">_FV(C18,"Change")</f>
         <v>-2.5</v>
       </c>
-      <c r="M18" s="39" cm="1">
+      <c r="M18" s="38" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_FV(C18,"Change (%)",TRUE)</f>
         <v>-4.0029999999999996E-3</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>-0.59468567999999999</v>
       </c>
-      <c r="O18" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B18)</f>
+      <c r="O18" s="41">
         <v>526.15</v>
       </c>
-      <c r="P18" s="39">
+      <c r="P18" s="38">
         <f t="shared" si="4"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="40">
         <f t="shared" si="5"/>
         <v>-22.284000000000002</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.15409967845659167</v>
       </c>
-      <c r="S18" s="37">
+      <c r="S18" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>526.15</v>
       </c>
-      <c r="T18" s="37">
+      <c r="T18" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>515.62699999999995</v>
       </c>
-      <c r="U18" s="39">
+      <c r="U18" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="V18" s="41">
+      <c r="V18" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>-22.284000000000002</v>
       </c>
-      <c r="W18" s="43">
+      <c r="W18" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.15409967845659167</v>
       </c>
-      <c r="X18" s="37" t="str">
+      <c r="X18" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="45" cm="1">
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="44" cm="1">
         <f t="array" aca="1" ref="Z18" ca="1">_FV(C18,"P/E",TRUE)</f>
         <v>8.4031000000000002</v>
       </c>
-      <c r="AA18" s="46" cm="1">
+      <c r="AA18" s="45" cm="1">
         <f t="array" aca="1" ref="AA18" ca="1">_FV(C18,"Market cap",TRUE)/1000000</f>
         <v>5409.018</v>
       </c>
-      <c r="AB18" s="45" cm="1">
+      <c r="AB18" s="44" cm="1">
         <f t="array" aca="1" ref="AB18" ca="1">_FV(C18,"52 week high",TRUE)</f>
         <v>637</v>
       </c>
-      <c r="AC18" s="45" cm="1">
+      <c r="AC18" s="44" cm="1">
         <f t="array" aca="1" ref="AC18" ca="1">_FV(C18,"52 week low",TRUE)</f>
         <v>390</v>
       </c>
-      <c r="AD18" s="47" t="str" cm="1">
+      <c r="AD18" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD18" ca="1">_FV(C18,"Industry")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="49" t="e" vm="14">
+      <c r="C19" s="48" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="50" t="str" cm="1">
+      <c r="D19" s="49" t="str" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">_FV(C19,"Official name",TRUE)</f>
         <v>HSBC HOLDINGS PLC</v>
       </c>
-      <c r="E19" s="37">
-        <f>SUMIFS([1]Plan!$C$8:$P$8,[1]Plan!$C$4:$P$4,DASH!$B19)</f>
+      <c r="E19" s="36">
         <v>11</v>
       </c>
-      <c r="F19" s="37">
-        <f>SUMIFS([1]Plan!$C$7:$P$7,[1]Plan!$C$4:$P$4,DASH!$B19)</f>
+      <c r="F19" s="36">
         <v>1310</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <f t="shared" si="0"/>
         <v>144.1</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>143.59400000000002</v>
       </c>
-      <c r="I19" s="37" cm="1">
+      <c r="I19" s="36" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">_FV(C19,"Price")</f>
         <v>1305.4000000000001</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="50">
         <f t="shared" ca="1" si="2"/>
         <v>-0.50599999999997181</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>-3.5114503816791936E-3</v>
       </c>
-      <c r="L19" s="40" cm="1">
+      <c r="L19" s="39" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">_FV(C19,"Change")</f>
         <v>-0.6</v>
       </c>
-      <c r="M19" s="39" cm="1">
+      <c r="M19" s="38" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_FV(C19,"Change (%)",TRUE)</f>
         <v>-4.594E-4</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>-6.6199540000000001E-2</v>
       </c>
-      <c r="O19" s="42">
-        <f>SUMIFS([1]Plan!$C$31:$P$31,[1]Plan!$C$4:$P$4,DASH!$B19)</f>
+      <c r="O19" s="41">
         <v>1113.5</v>
       </c>
-      <c r="P19" s="39">
+      <c r="P19" s="38">
         <f t="shared" si="4"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="40">
         <f t="shared" si="5"/>
         <v>-21.615000000000002</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.14700474950206843</v>
       </c>
-      <c r="S19" s="37">
+      <c r="S19" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>1113.5</v>
       </c>
-      <c r="T19" s="37">
+      <c r="T19" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>1091.23</v>
       </c>
-      <c r="U19" s="39">
+      <c r="U19" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="V19" s="41">
+      <c r="V19" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>-21.615000000000002</v>
       </c>
-      <c r="W19" s="43">
+      <c r="W19" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.14700474950206843</v>
       </c>
-      <c r="X19" s="37" t="str">
+      <c r="X19" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="45" cm="1">
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="44" cm="1">
         <f t="array" aca="1" ref="Z19" ca="1">_FV(C19,"P/E",TRUE)</f>
         <v>18.477599999999999</v>
       </c>
-      <c r="AA19" s="46" cm="1">
+      <c r="AA19" s="45" cm="1">
         <f t="array" aca="1" ref="AA19" ca="1">_FV(C19,"Market cap",TRUE)/1000000</f>
         <v>208937.7</v>
       </c>
-      <c r="AB19" s="45" cm="1">
+      <c r="AB19" s="44" cm="1">
         <f t="array" aca="1" ref="AB19" ca="1">_FV(C19,"52 week high",TRUE)</f>
         <v>1320.4</v>
       </c>
-      <c r="AC19" s="45" cm="1">
+      <c r="AC19" s="44" cm="1">
         <f t="array" aca="1" ref="AC19" ca="1">_FV(C19,"52 week low",TRUE)</f>
         <v>698.7</v>
       </c>
-      <c r="AD19" s="47" t="str" cm="1">
+      <c r="AD19" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD19" ca="1">_FV(C19,"Industry")</f>
         <v>Banking Services</v>
       </c>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="36">
         <v>61</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <f>(2976.49/E20)*100</f>
         <v>4879.4918032786882</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="36">
         <f t="shared" si="0"/>
         <v>2976.49</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>4407.25</v>
       </c>
-      <c r="I20" s="37" cm="1">
+      <c r="I20" s="36" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">_FV(C20,"Price")</f>
         <v>7225</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>1430.7600000000002</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>0.48068698366196438</v>
       </c>
-      <c r="L20" s="40" cm="1">
+      <c r="L20" s="39" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">_FV(C20,"Change")</f>
         <v>97</v>
       </c>
-      <c r="M20" s="39" cm="1">
+      <c r="M20" s="38" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_FV(C20,"Change (%)",TRUE)</f>
         <v>1.3608E-2</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>40.504075919999998</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="41">
         <v>6109</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="38">
         <f t="shared" si="4"/>
         <v>0.25197464127210245</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="40">
         <f t="shared" si="5"/>
         <v>750.00000000000011</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-0.15446366782006915</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>6141.25</v>
       </c>
-      <c r="T20" s="52">
+      <c r="T20" s="51">
         <f t="shared" ca="1" si="11"/>
         <v>6018.4250000000002</v>
       </c>
-      <c r="U20" s="39">
+      <c r="U20" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>0.25858393611266961</v>
       </c>
-      <c r="V20" s="41">
+      <c r="V20" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>769.6724999999999</v>
       </c>
-      <c r="W20" s="43">
+      <c r="W20" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="X20" s="37" t="str">
+      <c r="X20" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="45" cm="1">
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="44" cm="1">
         <f t="array" aca="1" ref="AB20" ca="1">_FV(C20,"52 week high",TRUE)</f>
         <v>7793</v>
       </c>
-      <c r="AC20" s="45" cm="1">
+      <c r="AC20" s="44" cm="1">
         <f t="array" aca="1" ref="AC20" ca="1">_FV(C20,"52 week low",TRUE)</f>
         <v>2136.299</v>
       </c>
-      <c r="AD20" s="55"/>
+      <c r="AD20" s="54"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="49" t="e" vm="16">
+      <c r="C21" s="48" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <v>54</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="36">
         <f>4180.76/54*100</f>
         <v>7742.1481481481478</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <f t="shared" si="0"/>
         <v>4180.76</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>5211.54</v>
       </c>
-      <c r="I21" s="37" cm="1">
+      <c r="I21" s="36" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">_FV(C21,"Price")*100</f>
         <v>9651</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>1030.7799999999997</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="38">
         <f t="shared" ca="1" si="3"/>
         <v>0.2465532582592638</v>
       </c>
-      <c r="L21" s="40" cm="1">
+      <c r="L21" s="39" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">_FV(C21,"Change")</f>
         <v>-0.16500000000000001</v>
       </c>
-      <c r="M21" s="39" cm="1">
+      <c r="M21" s="38" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_FV(C21,"Change (%)",TRUE)</f>
         <v>-1.707E-3</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="40">
         <f t="shared" ca="1" si="9"/>
         <v>-7.1365573200000005</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="41">
         <f>88.48*100</f>
         <v>8848</v>
       </c>
-      <c r="P21" s="39">
+      <c r="P21" s="38">
         <f t="shared" si="4"/>
         <v>0.14283527396932616</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="40">
         <f t="shared" si="5"/>
         <v>597.16000000000008</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="42">
         <f t="shared" ca="1" si="6"/>
         <v>-8.3203813076365152E-2</v>
       </c>
-      <c r="S21" s="37">
+      <c r="S21" s="36">
         <f t="shared" ca="1" si="10"/>
         <v>8516.3629629629631</v>
       </c>
-      <c r="T21" s="37">
+      <c r="T21" s="36">
         <f t="shared" ca="1" si="11"/>
         <v>8346.0357037037029</v>
       </c>
-      <c r="U21" s="39">
+      <c r="U21" s="38">
         <f t="shared" ca="1" si="7"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="V21" s="41">
+      <c r="V21" s="40">
         <f t="shared" ca="1" si="8"/>
         <v>418.07600000000042</v>
       </c>
-      <c r="W21" s="43">
+      <c r="W21" s="42">
         <f t="shared" ca="1" si="12"/>
         <v>-0.11756678448212998</v>
       </c>
-      <c r="X21" s="37" t="str">
+      <c r="X21" s="36" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>OK</v>
       </c>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="45" cm="1">
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="44" cm="1">
         <f t="array" aca="1" ref="AB21" ca="1">_FV(C21,"52 week high",TRUE)</f>
         <v>107.01</v>
       </c>
-      <c r="AC21" s="45" cm="1">
+      <c r="AC21" s="44" cm="1">
         <f t="array" aca="1" ref="AC21" ca="1">_FV(C21,"52 week low",TRUE)</f>
         <v>70.599999999999994</v>
       </c>
-      <c r="AD21" s="55"/>
+      <c r="AD21" s="54"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59">
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58">
         <f>SUM(G6:G21)</f>
         <v>39188.462696999995</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="58">
         <f ca="1">SUM(H6:H21)</f>
         <v>44301.587719999996</v>
       </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60">
+      <c r="I22" s="58"/>
+      <c r="J22" s="59">
         <f ca="1">SUM(J6:J21)</f>
         <v>5113.1250229999987</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="60">
         <f ca="1">J22/G22</f>
         <v>0.13047526417491812</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="61">
+      <c r="L22" s="61"/>
+      <c r="M22" s="60">
         <f ca="1">N22/G22</f>
         <v>1.0721902646699453E-2</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="58">
         <f ca="1">SUM(N6:N21)</f>
         <v>420.17488191104701</v>
       </c>
-      <c r="O22" s="59"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="60">
+      <c r="O22" s="58"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="59">
         <f>SUM(Q6:Q21)</f>
         <v>-417.59771845000103</v>
       </c>
-      <c r="R22" s="63"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="60">
+      <c r="R22" s="62"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="59">
         <f ca="1">SUM(V6:V21)</f>
         <v>-708.55477775000008</v>
       </c>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="55"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="54"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.35">
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="2:34" s="14" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="68" t="s">
+    <row r="24" spans="2:34" s="13" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.35">
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="2:34" s="31" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="2:34" s="30" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="27" t="s">
+      <c r="N26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P26" s="23" t="s">
+      <c r="P26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="Q26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="23" t="s">
+      <c r="R26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="S26" s="23" t="s">
+      <c r="S26" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T26" s="23" t="s">
+      <c r="T26" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="U26" s="23" t="s">
+      <c r="U26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="V26" s="23" t="s">
+      <c r="V26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="W26" s="23" t="s">
+      <c r="W26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="X26" s="28" t="s">
+      <c r="X26" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="26" t="s">
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA26" s="23" t="s">
+      <c r="AA26" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AB26" s="23" t="s">
+      <c r="AB26" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AC26" s="23" t="s">
+      <c r="AC26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AD26" s="30" t="s">
+      <c r="AD26" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="33"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="32"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="49" t="e" vm="9">
+      <c r="C27" s="48" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="36" t="str" cm="1">
+      <c r="D27" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">_FV(C27,"Official name",TRUE)</f>
         <v>M.P. EVANS GROUP PLC</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="36">
         <v>229</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="36">
         <f>13.0664*100</f>
         <v>1306.6399999999999</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="36">
         <f t="shared" ref="G27:G33" si="14">F27*E27/100</f>
         <v>2992.2055999999998</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <f t="shared" ref="H27:H33" ca="1" si="15">I27*E27/100</f>
         <v>3492.25</v>
       </c>
-      <c r="I27" s="37" cm="1">
+      <c r="I27" s="36" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">_FV(C27,"Price")</f>
         <v>1525</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="37">
         <f t="shared" ref="J27:J33" ca="1" si="16">H27-G27</f>
         <v>500.04440000000022</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="38">
         <f t="shared" ref="K27:K34" ca="1" si="17">J27/G27</f>
         <v>0.16711565542153931</v>
       </c>
-      <c r="L27" s="40" cm="1">
+      <c r="L27" s="39" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">_FV(C27,"Change")</f>
         <v>145</v>
       </c>
-      <c r="M27" s="39" cm="1">
+      <c r="M27" s="38" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_FV(C27,"Change (%)",TRUE)</f>
         <v>0.105072</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="40">
         <f ca="1">M27*G27</f>
         <v>314.39702680319999</v>
       </c>
-      <c r="O27" s="42">
+      <c r="O27" s="41">
         <v>1372</v>
       </c>
-      <c r="P27" s="39">
+      <c r="P27" s="38">
         <f t="shared" ref="P27:P33" si="18">O27/F27-1</f>
         <v>5.002142900875528E-2</v>
       </c>
-      <c r="Q27" s="41">
+      <c r="Q27" s="40">
         <f t="shared" ref="Q27:Q33" si="19">P27*G27</f>
         <v>149.67439999999999</v>
       </c>
-      <c r="R27" s="43">
+      <c r="R27" s="42">
         <f t="shared" ref="R27:R33" ca="1" si="20">O27/I27-1</f>
         <v>-0.10032786885245903</v>
       </c>
-      <c r="S27" s="37">
+      <c r="S27" s="36">
         <f t="shared" ref="S27:S33" ca="1" si="21">IF(K27&lt;0.1,O27,IF(K27&lt;0.125,F27*1,IF(K27&lt;0.15,F27*1.02,IF(K27&lt;0.2,F27*1.05,IF(K27&lt;0.3,F27*1.1,I27*0.85)))))</f>
         <v>1371.972</v>
       </c>
-      <c r="T27" s="37">
+      <c r="T27" s="36">
         <f t="shared" ref="T27:T33" ca="1" si="22">S27*0.98</f>
         <v>1344.5325599999999</v>
       </c>
-      <c r="U27" s="39">
+      <c r="U27" s="38">
         <f t="shared" ref="U27:U33" ca="1" si="23">S27/F27-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V27" s="41">
+      <c r="V27" s="40">
         <f t="shared" ref="V27:V33" ca="1" si="24">U27*G27</f>
         <v>149.61028000000013</v>
       </c>
-      <c r="W27" s="43">
+      <c r="W27" s="42">
         <f ca="1">S27/I27-1</f>
         <v>-0.10034622950819672</v>
       </c>
-      <c r="X27" s="37" t="str">
+      <c r="X27" s="36" t="str">
         <f t="shared" ref="X27:X33" ca="1" si="25">IF(OR(S27&lt;=O27,ABS(R27)-ABS(W27)&lt;1%),"OK","RAISE")</f>
         <v>OK</v>
       </c>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="45" cm="1">
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="44" cm="1">
         <f t="array" aca="1" ref="Z27" ca="1">_FV(C27,"P/E",TRUE)</f>
         <v>10.1647</v>
       </c>
-      <c r="AA27" s="46" cm="1">
+      <c r="AA27" s="45" cm="1">
         <f t="array" aca="1" ref="AA27" ca="1">_FV(C27,"Market cap",TRUE)/1000000</f>
         <v>657.82010000000002</v>
       </c>
-      <c r="AB27" s="45" cm="1">
+      <c r="AB27" s="44" cm="1">
         <f t="array" aca="1" ref="AB27" ca="1">_FV(C27,"52 week high",TRUE)</f>
         <v>1525</v>
       </c>
-      <c r="AC27" s="45" cm="1">
+      <c r="AC27" s="44" cm="1">
         <f t="array" aca="1" ref="AC27" ca="1">_FV(C27,"52 week low",TRUE)</f>
         <v>912</v>
       </c>
-      <c r="AD27" s="47" t="str" cm="1">
+      <c r="AD27" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD27" ca="1">_FV(C27,"Industry")</f>
         <v>Food &amp; Tobacco</v>
       </c>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="48"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="47"/>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="35" t="e" vm="1">
+      <c r="C28" s="34" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="36" t="str" cm="1">
+      <c r="D28" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">_FV(C28,"Official name",TRUE)</f>
         <v>CMC MARKETS PLC</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="36">
         <v>1063</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="36">
         <f>3.2752*100</f>
         <v>327.52</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="36">
         <f t="shared" si="14"/>
         <v>3481.5376000000001</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="36">
         <f t="shared" ca="1" si="15"/>
         <v>3316.56</v>
       </c>
-      <c r="I28" s="37" cm="1">
+      <c r="I28" s="36" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">_FV(C28,"Price")</f>
         <v>312</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="37">
         <f t="shared" ca="1" si="16"/>
         <v>-164.97760000000017</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="38">
         <f t="shared" ca="1" si="17"/>
         <v>-4.7386419149975621E-2</v>
       </c>
-      <c r="L28" s="40" cm="1">
+      <c r="L28" s="39" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">_FV(C28,"Change")</f>
         <v>-14.5</v>
       </c>
-      <c r="M28" s="39" cm="1">
+      <c r="M28" s="38" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_FV(C28,"Change (%)",TRUE)</f>
         <v>-4.4409999999999998E-2</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="40">
         <f t="shared" ref="N28:N33" ca="1" si="26">M28*G28</f>
         <v>-154.61508481600001</v>
       </c>
-      <c r="O28" s="42">
+      <c r="O28" s="41">
         <f>2.69*100</f>
         <v>269</v>
       </c>
-      <c r="P28" s="39">
+      <c r="P28" s="38">
         <f t="shared" si="18"/>
         <v>-0.17867611138251094</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="40">
         <f t="shared" si="19"/>
         <v>-622.06759999999986</v>
       </c>
-      <c r="R28" s="43">
+      <c r="R28" s="42">
         <f t="shared" ca="1" si="20"/>
         <v>-0.13782051282051277</v>
       </c>
-      <c r="S28" s="37">
+      <c r="S28" s="36">
         <f t="shared" ca="1" si="21"/>
         <v>269</v>
       </c>
-      <c r="T28" s="37">
+      <c r="T28" s="36">
         <f t="shared" ca="1" si="22"/>
         <v>263.62</v>
       </c>
-      <c r="U28" s="39">
+      <c r="U28" s="38">
         <f t="shared" ca="1" si="23"/>
         <v>-0.17867611138251094</v>
       </c>
-      <c r="V28" s="41">
+      <c r="V28" s="40">
         <f t="shared" ca="1" si="24"/>
         <v>-622.06759999999986</v>
       </c>
-      <c r="W28" s="43">
+      <c r="W28" s="42">
         <f t="shared" ref="W28:W33" ca="1" si="27">S28/I28-1</f>
         <v>-0.13782051282051277</v>
       </c>
-      <c r="X28" s="37" t="str">
+      <c r="X28" s="36" t="str">
         <f t="shared" ca="1" si="25"/>
         <v>OK</v>
       </c>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="45" cm="1">
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="44" cm="1">
         <f t="array" aca="1" ref="Z28" ca="1">_FV(C28,"P/E",TRUE)</f>
         <v>13.6751</v>
       </c>
-      <c r="AA28" s="46" cm="1">
+      <c r="AA28" s="45" cm="1">
         <f t="array" aca="1" ref="AA28" ca="1">_FV(C28,"Market cap",TRUE)/1000000</f>
         <v>867.42790000000002</v>
       </c>
-      <c r="AB28" s="45" cm="1">
+      <c r="AB28" s="44" cm="1">
         <f t="array" aca="1" ref="AB28" ca="1">_FV(C28,"52 week high",TRUE)</f>
         <v>335.5</v>
       </c>
-      <c r="AC28" s="45" cm="1">
+      <c r="AC28" s="44" cm="1">
         <f t="array" aca="1" ref="AC28" ca="1">_FV(C28,"52 week low",TRUE)</f>
         <v>183.4</v>
       </c>
-      <c r="AD28" s="47" t="str" cm="1">
+      <c r="AD28" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD28" ca="1">_FV(C28,"Industry")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="48"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="47"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="49" t="e" vm="6">
+      <c r="C29" s="48" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="36" t="str" cm="1">
+      <c r="D29" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">_FV(C29,"Official name",TRUE)</f>
         <v>KELLER GROUP PLC</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="36">
         <v>168</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <f>17.7453*100</f>
         <v>1774.53</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <f t="shared" si="14"/>
         <v>2981.2103999999999</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="36">
         <f t="shared" ca="1" si="15"/>
         <v>3212.16</v>
       </c>
-      <c r="I29" s="37" cm="1">
+      <c r="I29" s="36" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">_FV(C29,"Price")</f>
         <v>1912</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="37">
         <f t="shared" ca="1" si="16"/>
         <v>230.94959999999992</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="38">
         <f t="shared" ca="1" si="17"/>
         <v>7.7468400083402333E-2</v>
       </c>
-      <c r="L29" s="40" cm="1">
+      <c r="L29" s="39" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">_FV(C29,"Change")</f>
         <v>8</v>
       </c>
-      <c r="M29" s="39" cm="1">
+      <c r="M29" s="38" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_FV(C29,"Change (%)",TRUE)</f>
         <v>4.202E-3</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="40">
         <f t="shared" ca="1" si="26"/>
         <v>12.5270461008</v>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="41">
         <f>14.57*100</f>
         <v>1457</v>
       </c>
-      <c r="P29" s="39">
+      <c r="P29" s="38">
         <f t="shared" si="18"/>
         <v>-0.1789375214845621</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="40">
         <f t="shared" si="19"/>
         <v>-533.45039999999995</v>
       </c>
-      <c r="R29" s="43">
+      <c r="R29" s="42">
         <f t="shared" ca="1" si="20"/>
         <v>-0.23797071129707115</v>
       </c>
-      <c r="S29" s="37">
+      <c r="S29" s="36">
         <f t="shared" ca="1" si="21"/>
         <v>1457</v>
       </c>
-      <c r="T29" s="37">
+      <c r="T29" s="36">
         <f t="shared" ca="1" si="22"/>
         <v>1427.86</v>
       </c>
-      <c r="U29" s="39">
+      <c r="U29" s="38">
         <f t="shared" ca="1" si="23"/>
         <v>-0.1789375214845621</v>
       </c>
-      <c r="V29" s="41">
+      <c r="V29" s="40">
         <f t="shared" ca="1" si="24"/>
         <v>-533.45039999999995</v>
       </c>
-      <c r="W29" s="43">
+      <c r="W29" s="42">
         <f t="shared" ca="1" si="27"/>
         <v>-0.23797071129707115</v>
       </c>
-      <c r="X29" s="37" t="str">
+      <c r="X29" s="36" t="str">
         <f t="shared" ca="1" si="25"/>
         <v>OK</v>
       </c>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="45" cm="1">
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="44" cm="1">
         <f t="array" aca="1" ref="Z29" ca="1">_FV(C29,"P/E",TRUE)</f>
         <v>9.7125000000000004</v>
       </c>
-      <c r="AA29" s="46" cm="1">
+      <c r="AA29" s="45" cm="1">
         <f t="array" aca="1" ref="AA29" ca="1">_FV(C29,"Market cap",TRUE)/1000000</f>
         <v>1169.6220000000001</v>
       </c>
-      <c r="AB29" s="45" cm="1">
+      <c r="AB29" s="44" cm="1">
         <f t="array" aca="1" ref="AB29" ca="1">_FV(C29,"52 week high",TRUE)</f>
         <v>1922</v>
       </c>
-      <c r="AC29" s="45" cm="1">
+      <c r="AC29" s="44" cm="1">
         <f t="array" aca="1" ref="AC29" ca="1">_FV(C29,"52 week low",TRUE)</f>
         <v>1222</v>
       </c>
-      <c r="AD29" s="47" t="str" cm="1">
+      <c r="AD29" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD29" ca="1">_FV(C29,"Industry")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="48"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="47"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="49" t="e" vm="10">
+      <c r="C30" s="48" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="D30" s="36" t="str" cm="1">
+      <c r="D30" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">_FV(C30,"Official name",TRUE)</f>
         <v>HUNTING PLC</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <v>654</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <f>4.56*100</f>
         <v>455.99999999999994</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="36">
         <f t="shared" si="14"/>
         <v>2982.2399999999993</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <f t="shared" ca="1" si="15"/>
         <v>3162.09</v>
       </c>
-      <c r="I30" s="37" cm="1">
+      <c r="I30" s="36" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">_FV(C30,"Price")</f>
         <v>483.5</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="37">
         <f t="shared" ca="1" si="16"/>
         <v>179.85000000000082</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="38">
         <f t="shared" ca="1" si="17"/>
         <v>6.0307017543859934E-2</v>
       </c>
-      <c r="L30" s="40" cm="1">
+      <c r="L30" s="39" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">_FV(C30,"Change")</f>
         <v>8</v>
       </c>
-      <c r="M30" s="39" cm="1">
+      <c r="M30" s="38" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_FV(C30,"Change (%)",TRUE)</f>
         <v>1.6823999999999999E-2</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="40">
         <f t="shared" ca="1" si="26"/>
         <v>50.173205759999988</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="41">
         <f>3.75*100</f>
         <v>375</v>
       </c>
-      <c r="P30" s="39">
+      <c r="P30" s="38">
         <f t="shared" si="18"/>
         <v>-0.17763157894736836</v>
       </c>
-      <c r="Q30" s="41">
+      <c r="Q30" s="40">
         <f t="shared" si="19"/>
         <v>-529.73999999999967</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="42">
         <f t="shared" ca="1" si="20"/>
         <v>-0.2244053774560496</v>
       </c>
-      <c r="S30" s="37">
+      <c r="S30" s="36">
         <f t="shared" ca="1" si="21"/>
         <v>375</v>
       </c>
-      <c r="T30" s="37">
+      <c r="T30" s="36">
         <f t="shared" ca="1" si="22"/>
         <v>367.5</v>
       </c>
-      <c r="U30" s="39">
+      <c r="U30" s="38">
         <f t="shared" ca="1" si="23"/>
         <v>-0.17763157894736836</v>
       </c>
-      <c r="V30" s="41">
+      <c r="V30" s="40">
         <f t="shared" ca="1" si="24"/>
         <v>-529.73999999999967</v>
       </c>
-      <c r="W30" s="43">
+      <c r="W30" s="42">
         <f t="shared" ca="1" si="27"/>
         <v>-0.2244053774560496</v>
       </c>
-      <c r="X30" s="37" t="str">
+      <c r="X30" s="36" t="str">
         <f t="shared" ca="1" si="25"/>
         <v>OK</v>
       </c>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="45" cm="1">
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="44" cm="1">
         <f t="array" aca="1" ref="Z30" ca="1">_FV(C30,"P/E",TRUE)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="46" cm="1">
+      <c r="AA30" s="45" cm="1">
         <f t="array" aca="1" ref="AA30" ca="1">_FV(C30,"Market cap",TRUE)/1000000</f>
         <v>626.66610000000003</v>
       </c>
-      <c r="AB30" s="45" cm="1">
+      <c r="AB30" s="44" cm="1">
         <f t="array" aca="1" ref="AB30" ca="1">_FV(C30,"52 week high",TRUE)</f>
         <v>485</v>
       </c>
-      <c r="AC30" s="45" cm="1">
+      <c r="AC30" s="44" cm="1">
         <f t="array" aca="1" ref="AC30" ca="1">_FV(C30,"52 week low",TRUE)</f>
         <v>245</v>
       </c>
-      <c r="AD30" s="47" t="str" cm="1">
+      <c r="AD30" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD30" ca="1">_FV(C30,"Industry")</f>
         <v>Oil &amp; Gas Related Equipment and Services</v>
       </c>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="48"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="47"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="49" t="e" vm="11">
+      <c r="C31" s="48" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="D31" s="36" t="str" cm="1">
+      <c r="D31" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">_FV(C31,"Official name",TRUE)</f>
         <v>RAMSDENS HOLDINGS PLC.</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="36">
         <v>685</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="36">
         <f>4.375*100</f>
         <v>437.5</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="36">
         <f t="shared" si="14"/>
         <v>2996.875</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="36">
         <f t="shared" ca="1" si="15"/>
         <v>3048.25</v>
       </c>
-      <c r="I31" s="37" cm="1">
+      <c r="I31" s="36" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">_FV(C31,"Price")</f>
         <v>445</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="37">
         <f t="shared" ca="1" si="16"/>
         <v>51.375</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="38">
         <f t="shared" ca="1" si="17"/>
         <v>1.7142857142857144E-2</v>
       </c>
-      <c r="L31" s="40" cm="1">
+      <c r="L31" s="39" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">_FV(C31,"Change")</f>
         <v>5</v>
       </c>
-      <c r="M31" s="39" cm="1">
+      <c r="M31" s="38" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_FV(C31,"Change (%)",TRUE)</f>
         <v>1.1364000000000001E-2</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="40">
         <f t="shared" ca="1" si="26"/>
         <v>34.056487500000003</v>
       </c>
-      <c r="O31" s="42">
+      <c r="O31" s="41">
         <f>4.37*0.85*100</f>
         <v>371.45</v>
       </c>
-      <c r="P31" s="39">
+      <c r="P31" s="38">
         <f t="shared" si="18"/>
         <v>-0.15097142857142865</v>
       </c>
-      <c r="Q31" s="41">
+      <c r="Q31" s="40">
         <f t="shared" si="19"/>
         <v>-452.44250000000022</v>
       </c>
-      <c r="R31" s="43">
+      <c r="R31" s="42">
         <f t="shared" ca="1" si="20"/>
         <v>-0.16528089887640451</v>
       </c>
-      <c r="S31" s="37">
+      <c r="S31" s="36">
         <f t="shared" ca="1" si="21"/>
         <v>371.45</v>
       </c>
-      <c r="T31" s="37">
+      <c r="T31" s="36">
         <f t="shared" ca="1" si="22"/>
         <v>364.02099999999996</v>
       </c>
-      <c r="U31" s="39">
+      <c r="U31" s="38">
         <f t="shared" ca="1" si="23"/>
         <v>-0.15097142857142865</v>
       </c>
-      <c r="V31" s="41">
+      <c r="V31" s="40">
         <f t="shared" ca="1" si="24"/>
         <v>-452.44250000000022</v>
       </c>
-      <c r="W31" s="43">
+      <c r="W31" s="42">
         <f t="shared" ca="1" si="27"/>
         <v>-0.16528089887640451</v>
       </c>
-      <c r="X31" s="37" t="str">
+      <c r="X31" s="36" t="str">
         <f t="shared" ca="1" si="25"/>
         <v>OK</v>
       </c>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="45" cm="1">
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="44" cm="1">
         <f t="array" aca="1" ref="Z31" ca="1">_FV(C31,"P/E",TRUE)</f>
         <v>12.0238</v>
       </c>
-      <c r="AA31" s="46" cm="1">
+      <c r="AA31" s="45" cm="1">
         <f t="array" aca="1" ref="AA31" ca="1">_FV(C31,"Market cap",TRUE)/1000000</f>
         <v>135.89429999999999</v>
       </c>
-      <c r="AB31" s="45" cm="1">
+      <c r="AB31" s="44" cm="1">
         <f t="array" aca="1" ref="AB31" ca="1">_FV(C31,"52 week high",TRUE)</f>
         <v>470</v>
       </c>
-      <c r="AC31" s="45" cm="1">
+      <c r="AC31" s="44" cm="1">
         <f t="array" aca="1" ref="AC31" ca="1">_FV(C31,"52 week low",TRUE)</f>
         <v>195.732</v>
       </c>
-      <c r="AD31" s="47" t="str" cm="1">
+      <c r="AD31" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD31" ca="1">_FV(C31,"Industry")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="49" t="e" vm="17">
+      <c r="C32" s="48" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="D32" s="36" t="str" cm="1">
+      <c r="D32" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">_FV(C32,"Official name",TRUE)</f>
         <v>SAFESTORE HOLDINGS PLC</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <v>361</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="36">
         <f>8.2612*100</f>
         <v>826.12</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="36">
         <f t="shared" si="14"/>
         <v>2982.2932000000001</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="36">
         <f t="shared" ca="1" si="15"/>
         <v>2871.7550000000001</v>
       </c>
-      <c r="I32" s="37" cm="1">
+      <c r="I32" s="36" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">_FV(C32,"Price")</f>
         <v>795.5</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="37">
         <f t="shared" ca="1" si="16"/>
         <v>-110.53819999999996</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="38">
         <f t="shared" ca="1" si="17"/>
         <v>-3.7064833196145827E-2</v>
       </c>
-      <c r="L32" s="40" cm="1">
+      <c r="L32" s="39" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">_FV(C32,"Change")</f>
         <v>1.5</v>
       </c>
-      <c r="M32" s="39" cm="1">
+      <c r="M32" s="38" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_FV(C32,"Change (%)",TRUE)</f>
         <v>1.8890000000000001E-3</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="40">
         <f t="shared" ca="1" si="26"/>
         <v>5.6335518548000003</v>
       </c>
-      <c r="O32" s="42">
+      <c r="O32" s="41">
         <f>6.5*100</f>
         <v>650</v>
       </c>
-      <c r="P32" s="39">
+      <c r="P32" s="38">
         <f t="shared" si="18"/>
         <v>-0.21318936716215564</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="40">
         <f t="shared" si="19"/>
         <v>-635.79320000000007</v>
       </c>
-      <c r="R32" s="43">
+      <c r="R32" s="42">
         <f t="shared" ca="1" si="20"/>
         <v>-0.1829038340666248</v>
       </c>
-      <c r="S32" s="37">
+      <c r="S32" s="36">
         <f t="shared" ca="1" si="21"/>
         <v>650</v>
       </c>
-      <c r="T32" s="37">
+      <c r="T32" s="36">
         <f t="shared" ca="1" si="22"/>
         <v>637</v>
       </c>
-      <c r="U32" s="39">
+      <c r="U32" s="38">
         <f t="shared" ca="1" si="23"/>
         <v>-0.21318936716215564</v>
       </c>
-      <c r="V32" s="41">
+      <c r="V32" s="40">
         <f t="shared" ca="1" si="24"/>
         <v>-635.79320000000007</v>
       </c>
-      <c r="W32" s="43">
+      <c r="W32" s="42">
         <f t="shared" ca="1" si="27"/>
         <v>-0.1829038340666248</v>
       </c>
-      <c r="X32" s="37" t="str">
+      <c r="X32" s="36" t="str">
         <f t="shared" ca="1" si="25"/>
         <v>OK</v>
       </c>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="45" cm="1">
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="44" cm="1">
         <f t="array" aca="1" ref="Z32" ca="1">_FV(C32,"P/E",TRUE)</f>
         <v>15.641</v>
       </c>
-      <c r="AA32" s="46" cm="1">
+      <c r="AA32" s="45" cm="1">
         <f t="array" aca="1" ref="AA32" ca="1">_FV(C32,"Market cap",TRUE)/1000000</f>
         <v>1676.915</v>
       </c>
-      <c r="AB32" s="45" cm="1">
+      <c r="AB32" s="44" cm="1">
         <f t="array" aca="1" ref="AB32" ca="1">_FV(C32,"52 week high",TRUE)</f>
         <v>849.5</v>
       </c>
-      <c r="AC32" s="45" cm="1">
+      <c r="AC32" s="44" cm="1">
         <f t="array" aca="1" ref="AC32" ca="1">_FV(C32,"52 week low",TRUE)</f>
         <v>525.5</v>
       </c>
-      <c r="AD32" s="47" t="str" cm="1">
+      <c r="AD32" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD32" ca="1">_FV(C32,"Industry")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="49" t="e" vm="18">
+      <c r="C33" s="48" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="D33" s="36" t="str" cm="1">
+      <c r="D33" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">_FV(C33,"Official name",TRUE)</f>
         <v>RIO TINTO PLC</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>37</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <f>2532.26/E33*100</f>
         <v>6843.9459459459467</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="36">
         <f t="shared" si="14"/>
         <v>2532.2600000000002</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="36">
         <f t="shared" ca="1" si="15"/>
         <v>2693.23</v>
       </c>
-      <c r="I33" s="37" cm="1">
+      <c r="I33" s="36" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">_FV(C33,"Price")</f>
         <v>7279</v>
       </c>
-      <c r="J33" s="38">
+      <c r="J33" s="37">
         <f t="shared" ca="1" si="16"/>
         <v>160.9699999999998</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="38">
         <f t="shared" ca="1" si="17"/>
         <v>6.3567722113842887E-2</v>
       </c>
-      <c r="L33" s="40" cm="1">
+      <c r="L33" s="39" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">_FV(C33,"Change")</f>
         <v>196</v>
       </c>
-      <c r="M33" s="39" cm="1">
+      <c r="M33" s="38" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_FV(C33,"Change (%)",TRUE)</f>
         <v>2.7671999999999999E-2</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="40">
         <f t="shared" ca="1" si="26"/>
         <v>70.072698720000005</v>
       </c>
-      <c r="O33" s="42">
+      <c r="O33" s="41">
         <f>F33*0.85</f>
         <v>5817.3540540540544</v>
       </c>
-      <c r="P33" s="39">
+      <c r="P33" s="38">
         <f t="shared" si="18"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="Q33" s="41">
+      <c r="Q33" s="40">
         <f t="shared" si="19"/>
         <v>-379.83900000000011</v>
       </c>
-      <c r="R33" s="43">
+      <c r="R33" s="42">
         <f t="shared" ca="1" si="20"/>
         <v>-0.20080312487236507</v>
       </c>
-      <c r="S33" s="37">
+      <c r="S33" s="36">
         <f t="shared" ca="1" si="21"/>
         <v>5817.3540540540544</v>
       </c>
-      <c r="T33" s="37">
+      <c r="T33" s="36">
         <f t="shared" ca="1" si="22"/>
         <v>5701.006972972973</v>
       </c>
-      <c r="U33" s="39">
+      <c r="U33" s="38">
         <f t="shared" ca="1" si="23"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="V33" s="41">
+      <c r="V33" s="40">
         <f t="shared" ca="1" si="24"/>
         <v>-379.83900000000011</v>
       </c>
-      <c r="W33" s="43">
+      <c r="W33" s="42">
         <f t="shared" ca="1" si="27"/>
         <v>-0.20080312487236507</v>
       </c>
-      <c r="X33" s="37" t="str">
+      <c r="X33" s="36" t="str">
         <f t="shared" ca="1" si="25"/>
         <v>OK</v>
       </c>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="45" cm="1">
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="44" cm="1">
         <f t="array" aca="1" ref="Z33" ca="1">_FV(C33,"P/E",TRUE)</f>
         <v>15.7256</v>
       </c>
-      <c r="AA33" s="46" cm="1">
+      <c r="AA33" s="45" cm="1">
         <f t="array" aca="1" ref="AA33" ca="1">_FV(C33,"Market cap",TRUE)/1000000</f>
         <v>105195.6</v>
       </c>
-      <c r="AB33" s="45" cm="1">
+      <c r="AB33" s="44" cm="1">
         <f t="array" aca="1" ref="AB33" ca="1">_FV(C33,"52 week high",TRUE)</f>
         <v>7320</v>
       </c>
-      <c r="AC33" s="45" cm="1">
+      <c r="AC33" s="44" cm="1">
         <f t="array" aca="1" ref="AC33" ca="1">_FV(C33,"52 week low",TRUE)</f>
         <v>4024.5</v>
       </c>
-      <c r="AD33" s="47" t="str" cm="1">
+      <c r="AD33" s="46" t="str" cm="1">
         <f t="array" aca="1" ref="AD33" ca="1">_FV(C33,"Industry")</f>
         <v>Metals &amp; Mining</v>
       </c>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B34" s="56"/>
-      <c r="C34" s="57" t="e" vm="14">
+      <c r="B34" s="55"/>
+      <c r="C34" s="56" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59">
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58">
         <f>SUM(G27:G33)</f>
         <v>20948.621800000001</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="58">
         <f ca="1">SUM(H27:H33)</f>
         <v>21796.294999999998</v>
       </c>
-      <c r="I34" s="59"/>
-      <c r="J34" s="60">
+      <c r="I34" s="58"/>
+      <c r="J34" s="59">
         <f ca="1">SUM(J27:J32)</f>
         <v>686.70320000000083</v>
       </c>
-      <c r="K34" s="61">
+      <c r="K34" s="60">
         <f t="shared" ca="1" si="17"/>
         <v>3.2780352166174524E-2</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="61">
+      <c r="L34" s="59"/>
+      <c r="M34" s="60">
         <f ca="1">N34/G34</f>
         <v>1.5859989983818407E-2</v>
       </c>
-      <c r="N34" s="60">
+      <c r="N34" s="59">
         <f ca="1">SUM(N27:N33)</f>
         <v>332.24493192279994</v>
       </c>
-      <c r="O34" s="59"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="60">
+      <c r="O34" s="58"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="59">
         <f>SUM(Q27:Q33)</f>
         <v>-3003.6582999999996</v>
       </c>
-      <c r="R34" s="63"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="60">
+      <c r="R34" s="62"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="59">
         <f ca="1">SUM(V27:V33)</f>
         <v>-3003.7224199999996</v>
       </c>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="67"/>
-      <c r="AD34" s="55"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="54"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z36" s="1"/>
